--- a/Examples/cgam/test.xlsx
+++ b/Examples/cgam/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="881" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="148" uniqueCount="81">
   <si>
     <t>Key</t>
   </si>
@@ -205,6 +205,9 @@
     <t>noAPH</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>EXERGY</t>
   </si>
   <si>
@@ -260,9 +263,6 @@
   </si>
   <si>
     <t>recycle</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -424,106 +424,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -546,100 +546,100 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -668,419 +668,419 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>80</v>
+      <c r="J1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>72.465000000000003</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>73.326999999999998</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>73.599999999999994</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>73.296999999999997</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>72.283000000000001</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>72.465000000000003</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>72.465000000000003</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>97.896000000000001</v>
       </c>
-      <c r="J2" s="0">
-        <v>72.465000000000003</v>
+      <c r="J2">
+        <v>75.805000000000007</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>28.651</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>29.507000000000001</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>29.337</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>29.196000000000002</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>27.863</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>28.651</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>28.651</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>25.140999999999998</v>
       </c>
-      <c r="J4" s="0">
-        <v>28.651</v>
+      <c r="J4">
+        <v>28.614000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>50.338999999999999</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>50.896000000000001</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>51.926000000000002</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>51.018000000000001</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>51.048000000000002</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>50.338999999999999</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>50.338999999999999</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>25.140999999999998</v>
       </c>
-      <c r="J5" s="0">
-        <v>50.338999999999999</v>
+      <c r="J5">
+        <v>48.094999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>102.53</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>103.462</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>104.971</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>103.813</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>103.163</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>102.53</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>102.53</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>91.046000000000006</v>
       </c>
-      <c r="J6" s="0">
-        <v>102.53</v>
+      <c r="J6">
+        <v>102.461</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>38.810000000000002</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>38.734999999999999</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>40.229999999999997</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>39.295000000000002</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>40.323999999999998</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>38.810000000000002</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>38.810000000000002</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>31.210999999999999</v>
       </c>
-      <c r="J7" s="0">
-        <v>38.810000000000002</v>
+      <c r="J7">
+        <v>38.783999999999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>14.784000000000001</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>15.021000000000001</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>15.212999999999999</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>15.137</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>14.597</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>14.784000000000001</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>14.784000000000001</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>31.210999999999999</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
+        <v>16.623000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="C9">
+        <v>2.23</v>
+      </c>
+      <c r="D9">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="E9">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="H9">
         <v>14.784000000000001</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="I9">
+        <v>1.429</v>
+      </c>
+      <c r="J9">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>31.105</v>
+      </c>
+      <c r="C10">
+        <v>32.033000000000001</v>
+      </c>
+      <c r="D10">
+        <v>31.849</v>
+      </c>
+      <c r="E10">
+        <v>31.869</v>
+      </c>
+      <c r="F10">
+        <v>30.295000000000002</v>
+      </c>
+      <c r="G10">
+        <v>31.105</v>
+      </c>
+      <c r="H10">
+        <v>31.105</v>
+      </c>
+      <c r="I10">
+        <v>27.294</v>
+      </c>
+      <c r="J10">
+        <v>31.064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>9.3025699999999993</v>
+      </c>
+      <c r="C12">
+        <v>9.4033600000000011</v>
+      </c>
+      <c r="D12">
+        <v>9.5909699999999987</v>
+      </c>
+      <c r="E12">
+        <v>9.5640200000000011</v>
+      </c>
+      <c r="F12">
+        <v>9.0969999999999995</v>
+      </c>
+      <c r="G12">
+        <v>9.038120000000001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>22.391999999999999</v>
+      </c>
+      <c r="J12">
+        <v>10.878</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
         <v>2.1219999999999999</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C13">
         <v>2.23</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D13">
         <v>2.1560000000000001</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E13">
         <v>2.1120000000000001</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F13">
         <v>2.2280000000000002</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G13">
         <v>2.3530000000000002</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H13">
         <v>14.784000000000001</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I13">
         <v>1.429</v>
       </c>
-      <c r="J9" s="0">
-        <v>2.1219999999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0">
-        <v>31.105</v>
-      </c>
-      <c r="C10" s="0">
-        <v>32.033000000000001</v>
-      </c>
-      <c r="D10" s="0">
-        <v>31.849</v>
-      </c>
-      <c r="E10" s="0">
-        <v>31.869</v>
-      </c>
-      <c r="F10" s="0">
-        <v>30.295000000000002</v>
-      </c>
-      <c r="G10" s="0">
-        <v>31.105</v>
-      </c>
-      <c r="H10" s="0">
-        <v>31.105</v>
-      </c>
-      <c r="I10" s="0">
-        <v>27.294</v>
-      </c>
-      <c r="J10" s="0">
-        <v>31.105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0">
-        <v>30</v>
-      </c>
-      <c r="C11" s="0">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0">
-        <v>30</v>
-      </c>
-      <c r="E11" s="0">
-        <v>30</v>
-      </c>
-      <c r="F11" s="0">
-        <v>30</v>
-      </c>
-      <c r="G11" s="0">
-        <v>30</v>
-      </c>
-      <c r="H11" s="0">
-        <v>30</v>
-      </c>
-      <c r="I11" s="0">
-        <v>30</v>
-      </c>
-      <c r="J11" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0">
-        <v>9.3025699999999993</v>
-      </c>
-      <c r="C12" s="0">
-        <v>9.4033600000000011</v>
-      </c>
-      <c r="D12" s="0">
-        <v>9.5909699999999987</v>
-      </c>
-      <c r="E12" s="0">
-        <v>9.5640200000000011</v>
-      </c>
-      <c r="F12" s="0">
-        <v>9.0969999999999995</v>
-      </c>
-      <c r="G12" s="0">
-        <v>9.038120000000001</v>
-      </c>
-      <c r="H12" s="0">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0">
-        <v>22.391999999999999</v>
-      </c>
-      <c r="J12" s="0">
-        <v>9.3025699999999993</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2.1219999999999999</v>
-      </c>
-      <c r="C13" s="0">
-        <v>2.23</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="E13" s="0">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="F13" s="0">
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="G13" s="0">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="H13" s="0">
-        <v>14.784000000000001</v>
-      </c>
-      <c r="I13" s="0">
-        <v>1.429</v>
-      </c>
-      <c r="J13" s="0">
-        <v>2.1219999999999999</v>
+      <c r="J13">
+        <v>1.7310000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1102,101 +1102,101 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="0">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C2" s="0">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0">
-        <v>3</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="0">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0">
-        <v>4</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="0">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1219,155 +1219,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="0">
-        <v>30</v>
-      </c>
-      <c r="D2" s="0">
-        <v>30</v>
-      </c>
-      <c r="E2" s="0">
+      <c r="C4">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.7000000000000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>32.5</v>
+      </c>
+      <c r="D5">
+        <v>32.5</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
         <v>35</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="D4" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="E4" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="0">
-        <v>32.5</v>
-      </c>
-      <c r="D5" s="0">
-        <v>32.5</v>
-      </c>
-      <c r="E5" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="0">
-        <v>46</v>
-      </c>
-      <c r="D6" s="0">
-        <v>46</v>
-      </c>
-      <c r="E6" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="0">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="0">
-        <v>35</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0">
-        <v>37</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -1389,24 +1389,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
@@ -1427,42 +1427,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>0.092999999999999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>0.088999999999999996</v>
       </c>
     </row>
